--- a/data/TD_NGQ_CPQ_EncoreRetirement_US9400_UploadProducts_03.xlsx
+++ b/data/TD_NGQ_CPQ_EncoreRetirement_US9400_UploadProducts_03.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ngq-demo-develop 20161031\ngq-demo-develop 20161031\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huntejos\NGQ\NGQ\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>OpportunityID</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>..\..\data\products.xls</t>
+  </si>
+  <si>
+    <t>DeliverySpeed</t>
+  </si>
+  <si>
+    <t>DeliveryTerms</t>
+  </si>
+  <si>
+    <t>Special Priority</t>
+  </si>
+  <si>
+    <t>Carriage and Insurance Paid To</t>
   </si>
 </sst>
 </file>
@@ -374,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G16" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,9 +399,11 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +422,14 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -427,6 +447,12 @@
       </c>
       <c r="F2" t="s">
         <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
